--- a/聪明人与猪小弟/设计阶段文档/表结构设计.xlsx
+++ b/聪明人与猪小弟/设计阶段文档/表结构设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9335E785-5B87-4DA5-9912-3D30A79DEA99}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E5DACF0-6F4D-490F-8E1C-1D0441A38890}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础字段" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -842,10 +854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70896DD-7993-4DCE-AD63-25FA3BA3A804}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -918,18 +930,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
